--- a/France_works.xlsx
+++ b/France_works.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>story_backup</t>
   </si>
   <si>
     <t>欧仁·德拉克罗瓦《自由引导人民》</t>
@@ -56,6 +59,26 @@
 接下来，我们探讨相关的流派。浪漫主义是19世纪初在欧洲兴起的艺术流派，强调个人情感和想象力的重要性。德拉克罗瓦作为浪漫主义画家，其作品常常具有强烈的情感色彩和动态的构图。《自由引导人民》中的情感表达和对自由的追求，正是浪漫主义艺术的典型特征。
 最后，关于作品和生平，德拉克罗瓦的创作生涯中，除了《自由引导人民》，他还创作了许多其他著名的作品，如《希奥岛的屠杀》等。这些作品同样反映了他对历史事件的关注以及对人性和社会问题的思考。德拉克罗瓦的艺术生涯充满了对传统学院派绘画的挑战和对个人风格的探索。
 总结而言，《自由引导人民》是一幅充满力量和激情的画作，它不仅记录了历史，更激发了人们对自由和民主的向往。德拉克罗瓦以其独特的艺术视角和浪漫主义的风格，为后世留下了宝贵的艺术遗产。通过对这幅作品的赏析，我们可以更深刻地理解艺术与历史、社会的紧密联系，以及艺术家在社会变革中所扮演的角色。</t>
+  </si>
+  <si>
+    <t>标题：小贝学画记：琪琪博士讲述《自由引导人民》的故事
+章节一：小贝的疑惑与琪琪博士的讲解
+阳光透过窗帘，洒在小贝的绘画本上。他正聚精会神地临摹着一幅画作，画中是一位手持国旗的女性，她英勇地引领着人们前进。小贝皱了皱眉，抬头问：“爸爸，这幅画里的人为什么看起来这么勇敢？他们为什么要战斗呢？”
+琪琪博士走过来，坐在小贝旁边，微笑着说：“这是一幅叫做《自由引导人民》的画作，描绘的是19世纪法国七月革命的场景。那位手持国旗的女性象征着自由与希望，她身边的人们，有工人、学生，他们都为了追求自由而战。”
+小贝的眼睛亮了起来，他好奇地问：“那画家是不是也支持他们呢？”
+琪琪博士点了点头，说：“没错，画家欧仁·德拉克罗瓦是法国浪漫主义的代表人物。他的作品充满了强烈的情感和戏剧性。《自由引导人民》就是他对自由和民主的追求，以及对七月革命的支持。”
+小贝听得入了迷，他想象着那个时代的人们，心中涌起一股对自由的向往。
+章节二：浪漫主义与德拉克罗瓦的艺术风格
+小贝拿起调色板，一边调配着颜色，一边思考着琪琪博士刚才的话。他不太明白“浪漫主义”是什么意思，便又问：“爸爸，浪漫主义是什么？它和这幅画有什么关系？”
+琪琪博士笑着解释：“浪漫主义是一种强调个人情感和想象力的艺术流派。德拉克罗瓦的作品就常常展现出这种风格，比如《自由引导人民》中的情感表达和对自由的追求。”
+小贝似乎有所领悟，他点了点头，说：“我明白了，就像是用画笔讲述一个关于勇气和希望的故事。”
+琪琪博士赞许地看着小贝，鼓励他继续尝试，用心去感受画作中的情感。
+章节三：深入探索与启发思考
+几天后，小贝在学校的文化课上讲述了《自由引导人民》的故事。他的同学们都被这个故事吸引住了，纷纷围过来讨论。
+小贝兴奋地说：“我觉得艺术真的很神奇，它可以让我们了解历史，也可以激发我们的思考。就像德拉克罗瓦的画作，不仅是对历史事件的记录，更是对自由、民主和革命精神的颂扬。”
+同学们纷纷表示赞同，他们开始思考艺术与历史的紧密联系，以及艺术家在社会变革中所扮演的角色。
+小贝回到家后，兴奋地告诉琪琪博士：“爸爸，我今天在学校讲了一个关于《自由引导人民》的故事，大家都很喜欢听。我觉得艺术真的很有意义，它可以启发我们思考很多问题。”
+琪琪博士满意地笑了，他知道小贝已经开始理解艺术的力量，也开始学会用自己的方式去欣赏和表达艺术了。</t>
   </si>
   <si>
     <t>在温暖的周末午后，小贝坐在爸爸琪琪博士的书房里，好奇地翻看着一本关于法国绘画的书。突然，她看到了一幅画，画上有很多人和一面高高的旗帜。
@@ -84,6 +107,23 @@
 《睡莲》之所以能够跨越时间的界限，影响后世无数艺术家，不仅是因为莫奈高超的绘画技巧，更是因为他对自然的深情凝视和内心的真实感受。这些作品不单是视觉艺术的享受，更是心灵上的慰藉。站在这些画作前，观众可以暂时忘却外界的喧嚣，进入一个宁静、和谐的世界。
 对于热爱莫奈和他的《睡莲》系列的观众而言，深入了解这位艺术家的生平和创作过程，将增加对这些作品的情感共鸣和艺术价值的欣赏。每一次的观赏都可能带来新的发现和感悟，这也是莫奈艺术魅力持久不衰的原因之一。在探索《睡莲》的艺术世界时，我们不仅见证了一个艺术家对自然之美的颂歌，也体验到了一种穿越时间与空间的艺术对话。
 </t>
+  </si>
+  <si>
+    <t>标题：小贝与琪琪博士的《睡莲》探险
+在一个阳光明媚的下午，小贝坐在画室里，眼前摆放着一幅幅精美的法国绘画复制品。他的目光被其中一幅充满生机的画作吸引，那是一片蓝绿色的水面，点缀着绚烂的睡莲。小贝转向身旁的爸爸，琪琪博士，好奇地问道：“爸爸，这幅画好神奇啊，它是怎么画出来的呢？”
+琪琪博士微笑着回答：“这是克劳德·莫奈的《睡莲》系列之一。莫奈先生是印象派画家，他用独特的方式捕捉了自然界的光影和色彩。”
+“印象派是什么呀？”小贝眨巴着大眼睛问。
+“印象派是一种绘画风格，”琪琪博士解释道，“画家们不再像拍照一样细致地描绘事物，而是快速地、用色彩和光线表达他们的感受。就像你用彩色笔在纸上快乐地涂鸦。”
+“那莫奈先生为什么要画这么多睡莲呢？”小贝又问。
+“因为他热爱自然，尤其是他的花园。你看这画面，不同的颜色点块，好像在告诉我们不同时间的故事。从清晨到黄昏，甚至是夜晚，每个时刻的光线和影子都不同。”琪琪博士指着画面上的光影变化。
+“哇，他真的能够用画笔捕捉到时间呢！”小贝惊叹道。
+“对，而且他还有一种神奇的技法，叫做点彩。就是用小小的色点来画，这样远远地看，就能看到完整的画面，近近地看，又能看到数不清的小色点。”琪琪博士继续解释。
+小贝的眼睛亮了起来：“我也能试试点彩吗？”
+“当然可以，”琪琪博士鼓励他，“你可以用你的想象，创造出属于自己的池塘，也可以是你喜欢的任何场景。重要的是，要观察自然界的颜色是如何变化的，感受它，然后用你的画笔去表达。”
+小贝拿起画笔，沉浸在自己的绘画世界中。他想到了公园里的小池塘，想到了太阳下山时的金色光芒，还有水面上跳跃的小鱼。他用蓝色、绿色、黄色和粉色点缀在画布上，一点一点地，一个小小的池塘就这样在他的笔下生动起来。
+画完之后，小贝兴奋地对琪琪博士说：“看，爸爸，这是我的《睡莲》，虽然和莫奈先生的不一样，但我也用了点彩，我也捕捉到了自然的美！”
+琪琪博士满意地点点头：“非常好，小贝！艺术就是这样，它让我们看到每个人眼中独一无二的世界。”
+那天，小贝不仅学到了关于法国印象派的知识，还理解了如何通过绘画去发现和表达自己对世界的看法。而这一切都始于一个好奇的问题和一个愿意分享的父亲。</t>
   </si>
   <si>
     <t>在一座布满阳光的小书房里，小贝正聚精会神地凝视着一幅画。画上是一片美丽的池塘，水面漂浮着许多睡莲，色彩斑斓，如同梦境。小贝的眼睛闪闪发亮，他转头对爸爸琪琪博士说：“爸爸，这些睡莲看起来好神奇啊，它们是怎么画出来的呢？”
@@ -116,6 +156,23 @@
 总结： 梵高的《向日葵》不仅是一幅美丽的画作，它还承载着艺术家的情感和故事。这一系列作品以其明亮的色彩和充满活力的画面，成为了梵高艺术生涯中的亮点，也反映了后印象派对色彩和形式探索的追求。梵高的生平和创作经历，以及他作品中所蕴含的深刻意义，至今仍激励着无数艺术家和艺术爱好者。
 通过以上分析，我们可以看到《向日葵》不仅是一件艺术作品，更是梵高情感世界和艺术追求的体现。它的故事和意义超越了画布本身，成为了艺术史上的一个重要篇章。
 </t>
+  </si>
+  <si>
+    <t>标题：《向日葵》的故事
+小贝正坐在爸爸琪琪博士的书房中，眼前摊开了几本关于绘画的书籍。他的眼睛被其中一幅画作吸引，那是一朵又大又亮的向日葵，色彩斑斓，仿佛在向他微笑。
+“爸爸，这朵向日葵为什么会这么特别呢？”小贝好奇地问道。
+琪琪博士走过来，坐在小贝旁边，温柔地说：“这朵向日葵是荷兰画家梵高的杰作。他用自己的方式画出了向日葵的生命力和美丽。”
+“梵高叔叔是个怎么样的人呢？”小贝又问。
+“他是个非常特别的艺术家，虽然生前并不富有，也没有很多人欣赏他的作品，但他依然非常热爱绘画。”琪琪博士解释道，“他的作品颜色鲜艳，线条有力，就像他的《向日葵》一样。”
+小贝的眼睛亮了起来：“那他是怎么画出这些美丽的向日葵的呢？”
+琪琪博士微笑着继续说：“梵高叔叔在法国的一个小镇阿尔勒画了很多向日葵，他把它们放在不同的花瓶里。你知道吗，他的每一笔都充满了力量和情感。”
+“情感？”小贝疑惑地重复。
+“对，梵高叔叔通过他的画作表达他的感受，比如友情和希望。《向日葵》就是他送给朋友的一份特别的礼物。”琪琪博士慢慢讲述。
+小贝思考了一会儿，然后问：“那为什么人们现在都喜欢他的画呢？”
+琪琪博士点头：“因为他的画作虽然简单，但却能触动人心。就像《向日葵》一样，它不仅仅是一幅画，它还代表了梵高叔叔的一段生活和他对未来的希望。”
+小贝仔细地看着《向日葵》，似乎在想象梵高叔叔画画的样子。“我也想画出让人感觉美好的东西。”他小声说。
+琪琪博士笑着拍拍小贝的肩膀：“你一定可以的，只要你用心去感受世界，用爱去描绘，你的画也能像梵高叔叔的《向日葵》一样，给人们带来温暖和光明。”
+小贝点点头，心里充满了希望和梦想。他和爸爸一起继续探索着书中的画作，每一幅画背后都有一个故事，等待着他们去发现。</t>
   </si>
   <si>
     <t xml:space="preserve">在温暖的春日午后，小贝坐在家里的画室里，手中拿着画笔，眉头紧锁。他正在尝试着画出一幅像梵高《向日葵》那样的作品，但是总觉得缺少了些什么。这时，他的爸爸琪琪博士走了进来。
@@ -150,6 +207,23 @@
 除了《小丑》之外，华多的其他著名作品还包括《法国剧院的阳台》、《意大利喜剧演员》和《米尔达尔的舞蹈》等。这些作品同样展现了华多对人物性格的敏锐观察和对社会生活的独特见解。他的画作不仅在当时受到了广泛的欢迎，也为后世的艺术家提供了丰富的灵感来源。
 让·安东尼·华多的生平充满了艺术上的成就和个人的挑战。尽管他在生前并未获得足够的认可和财富，但他的作品却在他去世后逐渐被人们所重视，并对后来的艺术家产生了深远的影响。今天，华多被认为是法国绘画史上的一个重要人物，他的作品被视为洛可可艺术风格的经典代表。
 总之，《小丑》这幅画不仅是让·安东尼·华多艺术生涯中的一个亮点，也是18世纪法国社会生活的一个缩影。通过对这幅作品的分析，我们可以更深入地理解华多的艺术风格、技巧以及他对人性和社会的独到见解。</t>
+  </si>
+  <si>
+    <t>标题：琪琪博士与小贝的法国绘画之旅
+在一次温馨的下午，琪琪博士和他的好奇宝贝小贝坐在家里的画室，围绕着法国绘画展开了一段故事时间。
+琪琪博士开始讲述：“在很久很久以前，法国有一位名叫让·安东尼·华多的画家，他创造了一种叫做洛可可的美丽又独特的艺术风格。”
+“洛可可是什么？”小贝好奇地打断了爸爸。
+琪琪博士微笑着解释：“洛可可是一种非常精致、优雅又色彩丰富的艺术风格。就像我们的生日蛋糕一样，装饰得非常美丽，让人看了心情都变好了。”
+“哇，那《小丑》这幅画呢？为什么小丑会让人感觉既快乐又有点悲伤呢？”小贝的问题总是很深刻。
+琪琪博士沉思了一下，说：“很好的问题，小贝。《小丑》这幅画展示了一个穿着华丽衣服的小丑，但他的脸上却带着淡淡的忧伤。这是因为在那个时候，小丑常常是人们嘲笑和讽刺的对象，他们在舞台上让大家开心，自己的生活却可能并不快乐。”
+“这太不公平了！”小贝有点愤慨地说。
+“是的，小贝。华多通过这幅画让我们看到了表面下的真实情感，这就是艺术家用他们的作品来表达对社会的看法。”琪琪博士继续解释，“华多用柔和的色彩和细腻的画笔，把小丑的内心世界展示给我们看。他不仅画了小丑的样子，更画出了他内心的感受。”
+小贝认真地听着，然后问：“那么，华多为什么要选择小丑作为主题呢？”
+“好问题，我的小哲学家。”琪琪博士笑着回答，“小丑在当时的社会里很常见，他们是宫廷娱乐的一部分，但同时也是用来讽刺社会和政治家的工具。华多通过小丑这个角色，不仅显示了他的绘画技巧，也表达了他对人性和社会现实的理解。”
+“所以，华多的作品不仅仅是美丽的画面，还包含了深刻的思考，对吗？”小贝总结道。
+“没错！你理解得很好，小贝。”琪琪博士骄傲地看着儿子，“艺术作品很多时候都能引发我们的思考，让我们看到不同的视角和感受不同的情感。”
+随着天色渐晚，琪琪博士和小贝的讨论也接近尾声。小贝对华多和他的作品《小丑》有了更深的理解和感悟。他学到了艺术不仅是为了美观，更是为了表达思想和感情，以及反映社会的一面镜子。
+晚上，小贝躺在床上，脑海中还回响着关于华多和《小丑》的故事。他相信，未来他也会用自己的方式，去探索、表达这个世界的美好和不美好。</t>
   </si>
   <si>
     <t xml:space="preserve">在一个温暖的周末下午，小贝坐在家里的书房里，眼睛紧紧盯着一幅画。这幅画上有一个穿着花哨衣服的小丑，他站在一个充满欢乐气氛的花园中。小丑的脸上带着微笑，但眼神却透出一丝淡淡的忧郁。
@@ -781,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1319,20 +1396,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="35.7307692307692" customWidth="1"/>
     <col min="4" max="4" width="90.8557692307692" customWidth="1"/>
     <col min="5" max="5" width="61.2115384615385" customWidth="1"/>
+    <col min="6" max="6" width="26.4326923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,73 +1426,88 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="370" spans="1:5">
+    <row r="2" ht="409.5" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:5">
+    <row r="3" ht="409.5" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:5">
+    <row r="4" ht="409.5" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:5">
+    <row r="5" ht="409.5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
